--- a/inputs/0 - Expansão MS/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão MS/0 - Monitoramento Form 4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
   <workbookPr/>
   <xr:revisionPtr revIDLastSave="282" documentId="11_A037E9A631105FF32EE98F4E60C89E88AE4BF800" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FEE0045-1618-43FE-A9CA-3AB9AE457754}"/>
   <bookViews>

--- a/inputs/0 - Expansão MS/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão MS/0 - Monitoramento Form 4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_684ED1EA918B55F948181C8CF9DE3B9682C1CE3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE9B7F75-D073-4053-BB98-0001725561BF}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_18F8B1586C29B7C9D765884F1F851E6278C5C9A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D735339-4400-4474-BAEA-ADBFB94FFA41}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="179">
   <si>
     <t>Categoria</t>
   </si>
@@ -510,6 +510,9 @@
     <t>01/10/2025</t>
   </si>
   <si>
+    <t>29/10/2025</t>
+  </si>
+  <si>
     <t>Município sem Estrutura ou Associação</t>
   </si>
   <si>
@@ -528,6 +531,9 @@
     <t>30/09/2025</t>
   </si>
   <si>
+    <t>28/10/2025</t>
+  </si>
+  <si>
     <t>19/09/2025</t>
   </si>
   <si>
@@ -543,10 +549,16 @@
     <t>25/09/2025</t>
   </si>
   <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
     <t>22/09/2025</t>
   </si>
   <si>
     <t>26/09/2025, 26/09/2025</t>
+  </si>
+  <si>
+    <t>10/11/2025</t>
   </si>
   <si>
     <t>14/10/2025</t>
@@ -565,6 +577,21 @@
   </si>
   <si>
     <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>04/11/2025, 04/11/2025</t>
+  </si>
+  <si>
+    <t>ID 5564</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>04/11/2025</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
   </si>
   <si>
     <t>Mês de referência</t>
@@ -1313,28 +1340,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1343,8 +1367,17 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1355,22 +1388,16 @@
     <xf numFmtId="49" fontId="9" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3330,7 +3357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3417,19 +3444,19 @@
       </c>
       <c r="H2" s="53">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="53">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J2" s="53">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A2)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K2" s="53">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A2)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L2" s="53">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A2)</f>
@@ -3441,7 +3468,7 @@
       </c>
       <c r="N2" s="54">
         <f ca="1">SUM(B2:M2)</f>
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
@@ -3482,11 +3509,11 @@
       </c>
       <c r="J3" s="55">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A3)</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K3" s="55">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A3)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L3" s="55">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A3)</f>
@@ -3498,7 +3525,7 @@
       </c>
       <c r="N3" s="56">
         <f ca="1">SUM(B3:M3)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
@@ -3535,11 +3562,11 @@
       </c>
       <c r="I4" s="57">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A4)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J4" s="57">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A4)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K4" s="57">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A4)</f>
@@ -3555,7 +3582,7 @@
       </c>
       <c r="N4" s="58">
         <f ca="1">SUM(B4:M4)</f>
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
@@ -3600,7 +3627,7 @@
       </c>
       <c r="K5" s="59">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="59">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A5)</f>
@@ -3612,7 +3639,7 @@
       </c>
       <c r="N5" s="60">
         <f ca="1">SUM(B5:M5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1">
@@ -3702,7 +3729,7 @@
       </c>
       <c r="H7" s="63">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A7)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A7)</f>
@@ -3726,7 +3753,7 @@
       </c>
       <c r="N7" s="64">
         <f ca="1">SUM(B7:M7)</f>
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1">
@@ -3771,7 +3798,7 @@
       </c>
       <c r="K8" s="65">
         <f ca="1">SUM(K2:K7)</f>
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="L8" s="65">
         <f ca="1">SUM(L2:L7)</f>
@@ -3783,7 +3810,7 @@
       </c>
       <c r="N8" s="65">
         <f ca="1">SUM(B8:M8)</f>
-        <v>436</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
@@ -3828,11 +3855,11 @@
       <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="21" customHeight="1">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="98" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="108"/>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="96" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="109"/>
@@ -3842,7 +3869,7 @@
       <c r="H11" s="109"/>
       <c r="I11" s="108"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="106" t="s">
+      <c r="K11" s="96" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="109"/>
@@ -3851,7 +3878,7 @@
       <c r="O11" s="109"/>
       <c r="P11" s="108"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="103" t="s">
+      <c r="R11" s="88" t="s">
         <v>23</v>
       </c>
       <c r="S11" s="109"/>
@@ -3859,11 +3886,11 @@
       <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="102" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="110"/>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="109"/>
@@ -3873,7 +3900,7 @@
       <c r="H12" s="109"/>
       <c r="I12" s="108"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="96" t="s">
+      <c r="K12" s="95" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="109"/>
@@ -3882,7 +3909,7 @@
       <c r="O12" s="109"/>
       <c r="P12" s="108"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="97" t="s">
+      <c r="R12" s="87" t="s">
         <v>25</v>
       </c>
       <c r="S12" s="108"/>
@@ -3935,7 +3962,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="13"/>
-      <c r="R13" s="95" t="str">
+      <c r="R13" s="94" t="str">
         <f>_xlfn.CONCAT("Envios - Mês de Referência - ", A12)</f>
         <v>Envios - Mês de Referência - 08.25</v>
       </c>
@@ -3976,15 +4003,15 @@
       <c r="J14" s="17"/>
       <c r="K14" s="70">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$Q$15"), "Enviado")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L14" s="55">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$Q$15"), "Atrasado")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M14" s="57">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$Q$15"), "Atrasado &gt;= 2")</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N14" s="59">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$Q$15"), "Duplicado")</f>
@@ -4004,11 +4031,11 @@
       </c>
       <c r="S14" s="19">
         <f ca="1">VLOOKUP($T$12,$C$14:$I$18,2, FALSE)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T14" s="20">
         <f ca="1">S14/SUM($S$14:$S$19)</f>
-        <v>0.30769230769230771</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="U14" s="12"/>
     </row>
@@ -4045,19 +4072,19 @@
       <c r="J15" s="16"/>
       <c r="K15" s="70">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$18:$Q$31"), "Enviado")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L15" s="55">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$18:$Q$31"), "Atrasado")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M15" s="57">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$18:$Q$31"), "Atrasado &gt;= 2")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N15" s="59">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$18:$Q$31"), "Duplicado")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="61">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$18:$Q$31"), "Outras Ocorrências")</f>
@@ -4089,7 +4116,7 @@
       </c>
       <c r="D16" s="69">
         <f t="array" aca="1" ref="D16" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C16)*(INDIRECT($A$12&amp;"!E2:E100")="Enviado"))), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="55">
         <f t="array" aca="1" ref="E16" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C16)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
@@ -4097,7 +4124,7 @@
       </c>
       <c r="F16" s="57">
         <f t="array" aca="1" ref="F16" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C16)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="59">
         <f t="array" aca="1" ref="G16" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C16)*(INDIRECT($A$12&amp;"!E2:E100")="Duplicado"))), 0)</f>
@@ -4114,15 +4141,15 @@
       <c r="J16" s="17"/>
       <c r="K16" s="70">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$34:$Q$47"), "Enviado")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L16" s="55">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$34:$Q$47"), "Atrasado")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" s="57">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$34:$Q$47"), "Atrasado &gt;= 2")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" s="59">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$34:$Q$47"), "Duplicado")</f>
@@ -4142,11 +4169,11 @@
       </c>
       <c r="S16" s="57">
         <f ca="1">VLOOKUP($T$12,$C$14:$I$18,4,FALSE)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T16" s="75">
         <f ca="1">S16/SUM($S$14:$S$19)</f>
-        <v>0.53846153846153844</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="U16" s="12"/>
     </row>
@@ -4183,7 +4210,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="70">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$50:$Q$63"), "Enviado")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L17" s="55">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$50:$Q$63"), "Atrasado")</f>
@@ -4191,7 +4218,7 @@
       </c>
       <c r="M17" s="57">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$50:$Q$63"), "Atrasado &gt;= 2")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="59">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$50:$Q$63"), "Duplicado")</f>
@@ -4227,7 +4254,7 @@
       </c>
       <c r="D18" s="69">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C18)*(INDIRECT($A$12&amp;"!E2:E100")="Enviado"))), 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" s="55">
         <f t="array" aca="1" ref="E18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C18)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
@@ -4235,7 +4262,7 @@
       </c>
       <c r="F18" s="57">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C18)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G18" s="59">
         <f t="array" aca="1" ref="G18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C18)*(INDIRECT($A$12&amp;"!E2:E100")="Duplicado"))), 0)</f>
@@ -4291,7 +4318,7 @@
     <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="111"/>
       <c r="B19" s="112"/>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="109"/>
@@ -4301,7 +4328,7 @@
       <c r="H19" s="109"/>
       <c r="I19" s="108"/>
       <c r="J19" s="26"/>
-      <c r="K19" s="96" t="s">
+      <c r="K19" s="95" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="109"/>
@@ -4326,15 +4353,15 @@
     <row r="20" spans="1:21" ht="15" customHeight="1">
       <c r="A20" s="111"/>
       <c r="B20" s="112"/>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="87" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="108"/>
-      <c r="E20" s="97" t="s">
+      <c r="E20" s="87" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="108"/>
-      <c r="G20" s="97" t="s">
+      <c r="G20" s="87" t="s">
         <v>43</v>
       </c>
       <c r="H20" s="108"/>
@@ -4342,15 +4369,15 @@
         <v>44</v>
       </c>
       <c r="J20" s="17"/>
-      <c r="K20" s="98" t="s">
+      <c r="K20" s="100" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="113"/>
-      <c r="M20" s="98" t="s">
+      <c r="M20" s="100" t="s">
         <v>43</v>
       </c>
       <c r="N20" s="113"/>
-      <c r="O20" s="98" t="s">
+      <c r="O20" s="100" t="s">
         <v>45</v>
       </c>
       <c r="P20" s="113"/>
@@ -4358,7 +4385,7 @@
       <c r="R20" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="S20" s="104">
+      <c r="S20" s="91">
         <f ca="1">VLOOKUP($T$12,$C$21:$I$25,7,FALSE)</f>
         <v>0</v>
       </c>
@@ -4368,7 +4395,7 @@
     <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="111"/>
       <c r="B21" s="112"/>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="106" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="108"/>
@@ -4377,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="108"/>
-      <c r="G21" s="91">
+      <c r="G21" s="90">
         <f t="array" aca="1" ref="G21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C21)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>8</v>
       </c>
@@ -4392,18 +4419,18 @@
         <v>84</v>
       </c>
       <c r="L21" s="108"/>
-      <c r="M21" s="91">
+      <c r="M21" s="90">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:Q15"), "Não")</f>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N21" s="108"/>
       <c r="O21" s="93">
         <f ca="1">IFERROR(K21/SUM(K21:N21), 0)</f>
-        <v>0.7567567567567568</v>
+        <v>0.68852459016393441</v>
       </c>
       <c r="P21" s="108"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="95" t="s">
+      <c r="R21" s="94" t="s">
         <v>47</v>
       </c>
       <c r="S21" s="109"/>
@@ -4413,7 +4440,7 @@
     <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="111"/>
       <c r="B22" s="112"/>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="101" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="108"/>
@@ -4422,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="108"/>
-      <c r="G22" s="91">
+      <c r="G22" s="90">
         <f t="array" aca="1" ref="G22" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C22)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>11</v>
       </c>
@@ -4437,14 +4464,14 @@
         <v>84</v>
       </c>
       <c r="L22" s="108"/>
-      <c r="M22" s="91">
+      <c r="M22" s="90">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D18:Q31"), "Não")</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N22" s="108"/>
       <c r="O22" s="93">
         <f ca="1">IFERROR(K22/SUM(K22:N22), 0)</f>
-        <v>0.75</v>
+        <v>0.68852459016393441</v>
       </c>
       <c r="P22" s="108"/>
       <c r="Q22" s="13"/>
@@ -4473,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="108"/>
-      <c r="G23" s="94">
+      <c r="G23" s="99">
         <f t="array" aca="1" ref="G23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>9</v>
       </c>
@@ -4488,14 +4515,14 @@
         <v>70</v>
       </c>
       <c r="L23" s="108"/>
-      <c r="M23" s="91">
+      <c r="M23" s="90">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D34:Q47"), "Não")</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N23" s="108"/>
       <c r="O23" s="93">
         <f ca="1">IFERROR(K23/SUM(K23:N23), 0)</f>
-        <v>0.68627450980392157</v>
+        <v>0.64814814814814814</v>
       </c>
       <c r="P23" s="108"/>
       <c r="Q23" s="13"/>
@@ -4515,16 +4542,16 @@
     <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="111"/>
       <c r="B24" s="112"/>
-      <c r="C24" s="87" t="s">
+      <c r="C24" s="103" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="108"/>
-      <c r="E24" s="88">
+      <c r="E24" s="104">
         <f t="array" aca="1" ref="E24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
       <c r="F24" s="109"/>
-      <c r="G24" s="91">
+      <c r="G24" s="90">
         <f t="array" aca="1" ref="G24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>4</v>
       </c>
@@ -4539,14 +4566,14 @@
         <v>41</v>
       </c>
       <c r="L24" s="108"/>
-      <c r="M24" s="91">
+      <c r="M24" s="90">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D50:Q63"), "Não")</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N24" s="108"/>
       <c r="O24" s="93">
         <f ca="1">IFERROR(K24/SUM(K24:N24), 0)</f>
-        <v>0.7192982456140351</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="P24" s="108"/>
       <c r="Q24" s="13"/>
@@ -4566,7 +4593,7 @@
     <row r="25" spans="1:21">
       <c r="A25" s="111"/>
       <c r="B25" s="112"/>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="105" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="108"/>
@@ -4575,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="108"/>
-      <c r="G25" s="105">
+      <c r="G25" s="92">
         <f t="array" aca="1" ref="G25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>13</v>
       </c>
@@ -4590,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="108"/>
-      <c r="M25" s="91">
+      <c r="M25" s="90">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D66:Q78"), "Não")</f>
         <v>0</v>
       </c>
@@ -4697,7 +4724,7 @@
       <c r="R28" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="S28" s="102">
+      <c r="S28" s="97">
         <f ca="1">VLOOKUP($T$12,$C$20:$P$25,13,FALSE)</f>
         <v>0</v>
       </c>
@@ -4729,6 +4756,41 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A12:B25"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="M23:N23"/>
@@ -4739,46 +4801,11 @@
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="K11:P11"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A12:B25"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" dxfId="154" priority="5" operator="equal">
@@ -5988,12 +6015,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fredson Julio de Oliveira</v>
       </c>
-      <c r="E41" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="41" t="s">
-        <v>106</v>
+      <c r="E41" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="39"/>
@@ -6306,7 +6335,7 @@
         <v>107</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39" t="s">
@@ -6332,7 +6361,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G3" s="48" t="s">
         <v>107</v>
@@ -6390,7 +6419,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G5" s="48" t="s">
         <v>107</v>
@@ -6420,7 +6449,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G6" s="48" t="s">
         <v>107</v>
@@ -6478,7 +6507,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" s="48" t="s">
         <v>107</v>
@@ -6536,7 +6565,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G10" s="48" t="s">
         <v>107</v>
@@ -6566,7 +6595,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G11" s="48" t="s">
         <v>107</v>
@@ -6592,10 +6621,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Anderson Bergamasco Hryczyna </v>
       </c>
-      <c r="E12" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="39"/>
+      <c r="E12" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>156</v>
+      </c>
       <c r="G12" s="48" t="s">
         <v>107</v>
       </c>
@@ -6792,7 +6823,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>107</v>
@@ -6826,7 +6857,7 @@
         <v>107</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39" t="s">
@@ -6852,7 +6883,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G21" s="48" t="s">
         <v>107</v>
@@ -7052,7 +7083,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G28" s="48" t="s">
         <v>107</v>
@@ -7194,7 +7225,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G33" s="41" t="s">
         <v>106</v>
@@ -7207,7 +7238,7 @@
         <v>106</v>
       </c>
       <c r="K33" s="39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -7228,7 +7259,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G34" s="48" t="s">
         <v>107</v>
@@ -7312,10 +7343,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Gustavo Becker Modesto Silva</v>
       </c>
-      <c r="E37" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="39"/>
+      <c r="E37" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>162</v>
+      </c>
       <c r="G37" s="48" t="s">
         <v>107</v>
       </c>
@@ -7372,7 +7405,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G39" s="48" t="s">
         <v>107</v>
@@ -7426,10 +7459,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fredson Julio de Oliveira</v>
       </c>
-      <c r="E41" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="39"/>
+      <c r="E41" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>149</v>
+      </c>
       <c r="G41" s="48" t="s">
         <v>107</v>
       </c>
@@ -7486,7 +7521,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G43" s="48" t="s">
         <v>107</v>
@@ -7516,7 +7551,7 @@
         <v>17</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G44" s="48" t="s">
         <v>107</v>
@@ -7602,7 +7637,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G47" s="48" t="s">
         <v>107</v>
@@ -7674,8 +7709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D22" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -7751,7 +7786,7 @@
         <v>107</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39" t="s">
@@ -7773,8 +7808,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Beatriz Piffer</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>15</v>
+      <c r="E3" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="48" t="s">
@@ -7833,7 +7868,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G5" s="48" t="s">
         <v>107</v>
@@ -7889,8 +7924,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Armindo Ferreira da Silva</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>15</v>
+      <c r="E7" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="48" t="s">
@@ -7917,8 +7952,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Henderson Heim</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>15</v>
+      <c r="E8" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="48" t="s">
@@ -7945,8 +7980,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Helton Pinto de Castro</v>
       </c>
-      <c r="E9" s="51" t="s">
-        <v>15</v>
+      <c r="E9" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="48" t="s">
@@ -7973,10 +8008,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Jose roberto pogioli</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="39"/>
+      <c r="E10" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="G10" s="48" t="s">
         <v>107</v>
       </c>
@@ -8005,7 +8042,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G11" s="48" t="s">
         <v>107</v>
@@ -8035,7 +8072,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G12" s="48" t="s">
         <v>107</v>
@@ -8061,8 +8098,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Andressa da Silva</v>
       </c>
-      <c r="E13" s="51" t="s">
-        <v>15</v>
+      <c r="E13" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="48" t="s">
@@ -8089,10 +8126,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Isadora Gil</v>
       </c>
-      <c r="E14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="39"/>
+      <c r="E14" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>162</v>
+      </c>
       <c r="G14" s="48" t="s">
         <v>107</v>
       </c>
@@ -8117,8 +8156,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Marcella Regyna Scarassatti</v>
       </c>
-      <c r="E15" s="51" t="s">
-        <v>15</v>
+      <c r="E15" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="48" t="s">
@@ -8145,8 +8184,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Emerson Henrique Moreira</v>
       </c>
-      <c r="E16" s="51" t="s">
-        <v>15</v>
+      <c r="E16" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="48" t="s">
@@ -8173,8 +8212,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fabio Soares Clemente</v>
       </c>
-      <c r="E17" s="51" t="s">
-        <v>15</v>
+      <c r="E17" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="48" t="s">
@@ -8201,8 +8240,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Valdirlei de Araujo</v>
       </c>
-      <c r="E18" s="51" t="s">
-        <v>15</v>
+      <c r="E18" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="48" t="s">
@@ -8233,7 +8272,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>107</v>
@@ -8267,7 +8306,7 @@
         <v>107</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39" t="s">
@@ -8293,7 +8332,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G21" s="48" t="s">
         <v>107</v>
@@ -8347,8 +8386,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Angelo Cesar Favaro</v>
       </c>
-      <c r="E23" s="51" t="s">
-        <v>15</v>
+      <c r="E23" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="48" t="s">
@@ -8407,7 +8446,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G25" s="48" t="s">
         <v>107</v>
@@ -8433,8 +8472,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Aparecido dos Santos</v>
       </c>
-      <c r="E26" s="51" t="s">
-        <v>15</v>
+      <c r="E26" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="48" t="s">
@@ -8461,8 +8500,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Joao Lucas Côrtes Silva Freitas</v>
       </c>
-      <c r="E27" s="51" t="s">
-        <v>15</v>
+      <c r="E27" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="48" t="s">
@@ -8489,8 +8528,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Jose Antonio Pinheiro Munhoz</v>
       </c>
-      <c r="E28" s="51" t="s">
-        <v>15</v>
+      <c r="E28" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="48" t="s">
@@ -8545,8 +8584,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Alana Bardela dos Santos</v>
       </c>
-      <c r="E30" s="51" t="s">
-        <v>15</v>
+      <c r="E30" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="48" t="s">
@@ -8573,8 +8612,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Diogo Augusto Graeff Vizini</v>
       </c>
-      <c r="E31" s="51" t="s">
-        <v>15</v>
+      <c r="E31" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="48" t="s">
@@ -8605,7 +8644,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G32" s="48" t="s">
         <v>107</v>
@@ -8635,7 +8674,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G33" s="48" t="s">
         <v>107</v>
@@ -8665,7 +8704,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G34" s="48" t="s">
         <v>107</v>
@@ -8691,8 +8730,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Vania Tomazelli de Lima</v>
       </c>
-      <c r="E35" s="51" t="s">
-        <v>15</v>
+      <c r="E35" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="48" t="s">
@@ -8719,8 +8758,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Jose Elias Calonga Cunha</v>
       </c>
-      <c r="E36" s="51" t="s">
-        <v>15</v>
+      <c r="E36" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="48" t="s">
@@ -8747,10 +8786,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Gustavo Becker Modesto Silva</v>
       </c>
-      <c r="E37" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="39"/>
+      <c r="E37" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>162</v>
+      </c>
       <c r="G37" s="48" t="s">
         <v>107</v>
       </c>
@@ -8775,8 +8816,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Wendel Ortiz dos Santos</v>
       </c>
-      <c r="E38" s="51" t="s">
-        <v>15</v>
+      <c r="E38" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="48" t="s">
@@ -8803,10 +8844,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Edvaldo José de Souza</v>
       </c>
-      <c r="E39" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="39"/>
+      <c r="E39" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="G39" s="48" t="s">
         <v>107</v>
       </c>
@@ -8831,8 +8874,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Sirlei Aparecida Costa Souza</v>
       </c>
-      <c r="E40" s="51" t="s">
-        <v>15</v>
+      <c r="E40" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F40" s="39"/>
       <c r="G40" s="48" t="s">
@@ -8863,7 +8906,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G41" s="48" t="s">
         <v>107</v>
@@ -8889,8 +8932,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Mayara Cristina Neves Abel</v>
       </c>
-      <c r="E42" s="51" t="s">
-        <v>15</v>
+      <c r="E42" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="48" t="s">
@@ -8917,10 +8960,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Leandra Aymê Alves Elias Assumpcao</v>
       </c>
-      <c r="E43" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="39"/>
+      <c r="E43" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>149</v>
+      </c>
       <c r="G43" s="48" t="s">
         <v>107</v>
       </c>
@@ -8949,7 +8994,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G44" s="48" t="s">
         <v>107</v>
@@ -8975,8 +9020,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Paulo Ricardo Klaus</v>
       </c>
-      <c r="E45" s="51" t="s">
-        <v>15</v>
+      <c r="E45" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="48" t="s">
@@ -9035,7 +9080,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G47" s="48" t="s">
         <v>107</v>
@@ -9119,8 +9164,7 @@
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="6" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="42" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
@@ -9184,7 +9228,7 @@
         <v>107</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39" t="s">
@@ -9206,7 +9250,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Beatriz Piffer</v>
       </c>
-      <c r="E3" s="39"/>
+      <c r="E3" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="39"/>
       <c r="G3" s="48" t="s">
         <v>107</v>
@@ -9260,13 +9306,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Paula Freire</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="E5" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>172</v>
+      </c>
       <c r="G5" s="48" t="s">
         <v>107</v>
       </c>
       <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="I5" s="39" t="s">
+        <v>173</v>
+      </c>
       <c r="J5" s="39" t="s">
         <v>107</v>
       </c>
@@ -9286,7 +9338,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Leonardo Zavilenski Fogaça</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="39"/>
       <c r="G6" s="48" t="s">
         <v>107</v>
@@ -9312,7 +9366,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Armindo Ferreira da Silva</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="39"/>
       <c r="G7" s="48" t="s">
         <v>107</v>
@@ -9338,7 +9394,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Henderson Heim</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="39"/>
       <c r="G8" s="48" t="s">
         <v>107</v>
@@ -9364,7 +9422,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Helton Pinto de Castro</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="39"/>
       <c r="G9" s="48" t="s">
         <v>107</v>
@@ -9390,7 +9450,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Jose roberto pogioli</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="39"/>
       <c r="G10" s="48" t="s">
         <v>107</v>
@@ -9420,7 +9482,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G11" s="48" t="s">
         <v>107</v>
@@ -9446,8 +9508,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Anderson Bergamasco Hryczyna </v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="G12" s="48" t="s">
         <v>107</v>
       </c>
@@ -9472,7 +9538,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Andressa da Silva</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" s="39"/>
       <c r="G13" s="48" t="s">
         <v>107</v>
@@ -9498,8 +9566,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Isadora Gil</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>174</v>
+      </c>
       <c r="G14" s="48" t="s">
         <v>107</v>
       </c>
@@ -9524,8 +9596,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Marcella Regyna Scarassatti</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="E15" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="G15" s="48" t="s">
         <v>107</v>
       </c>
@@ -9550,7 +9626,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Emerson Henrique Moreira</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="39"/>
       <c r="G16" s="48" t="s">
         <v>107</v>
@@ -9576,7 +9654,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fabio Soares Clemente</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F17" s="39"/>
       <c r="G17" s="48" t="s">
         <v>107</v>
@@ -9602,8 +9682,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Valdirlei de Araujo</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="E18" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>156</v>
+      </c>
       <c r="G18" s="48" t="s">
         <v>107</v>
       </c>
@@ -9628,8 +9712,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Glassys Louise de Souza Cortez</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="E19" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>175</v>
+      </c>
       <c r="G19" s="48" t="s">
         <v>107</v>
       </c>
@@ -9662,7 +9750,7 @@
         <v>107</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39" t="s">
@@ -9684,7 +9772,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Rony Eduardo Souza Terra</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F21" s="39"/>
       <c r="G21" s="48" t="s">
         <v>107</v>
@@ -9738,7 +9828,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Angelo Cesar Favaro</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="39"/>
       <c r="G23" s="48" t="s">
         <v>107</v>
@@ -9792,7 +9884,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Julia Pereira</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F25" s="39"/>
       <c r="G25" s="48" t="s">
         <v>107</v>
@@ -9818,7 +9912,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Aparecido dos Santos</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F26" s="39"/>
       <c r="G26" s="48" t="s">
         <v>107</v>
@@ -9844,7 +9940,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Joao Lucas Côrtes Silva Freitas</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F27" s="39"/>
       <c r="G27" s="48" t="s">
         <v>107</v>
@@ -9870,7 +9968,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Jose Antonio Pinheiro Munhoz</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F28" s="39"/>
       <c r="G28" s="48" t="s">
         <v>107</v>
@@ -9924,7 +10024,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Alana Bardela dos Santos</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F30" s="39"/>
       <c r="G30" s="48" t="s">
         <v>107</v>
@@ -9950,7 +10052,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Diogo Augusto Graeff Vizini</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F31" s="39"/>
       <c r="G31" s="48" t="s">
         <v>107</v>
@@ -9976,7 +10080,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Tiago Cabrera de Oliveira</v>
       </c>
-      <c r="E32" s="39"/>
+      <c r="E32" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F32" s="39"/>
       <c r="G32" s="48" t="s">
         <v>107</v>
@@ -10002,8 +10108,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Vanessa Diovana Biassi Soares</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
+      <c r="E33" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="G33" s="48" t="s">
         <v>107</v>
       </c>
@@ -10028,8 +10138,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Carlos Eduardo Meira Freire</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
+      <c r="E34" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="G34" s="48" t="s">
         <v>107</v>
       </c>
@@ -10054,7 +10168,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Vania Tomazelli de Lima</v>
       </c>
-      <c r="E35" s="39"/>
+      <c r="E35" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F35" s="39"/>
       <c r="G35" s="48" t="s">
         <v>107</v>
@@ -10080,7 +10196,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Jose Elias Calonga Cunha</v>
       </c>
-      <c r="E36" s="39"/>
+      <c r="E36" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F36" s="39"/>
       <c r="G36" s="48" t="s">
         <v>107</v>
@@ -10106,7 +10224,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Gustavo Becker Modesto Silva</v>
       </c>
-      <c r="E37" s="39"/>
+      <c r="E37" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F37" s="39"/>
       <c r="G37" s="48" t="s">
         <v>107</v>
@@ -10132,7 +10252,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Wendel Ortiz dos Santos</v>
       </c>
-      <c r="E38" s="39"/>
+      <c r="E38" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F38" s="39"/>
       <c r="G38" s="48" t="s">
         <v>107</v>
@@ -10158,8 +10280,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Edvaldo José de Souza</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
+      <c r="E39" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="G39" s="48" t="s">
         <v>107</v>
       </c>
@@ -10184,7 +10310,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Sirlei Aparecida Costa Souza</v>
       </c>
-      <c r="E40" s="39"/>
+      <c r="E40" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F40" s="39"/>
       <c r="G40" s="48" t="s">
         <v>107</v>
@@ -10210,7 +10338,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fredson Julio de Oliveira</v>
       </c>
-      <c r="E41" s="39"/>
+      <c r="E41" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F41" s="39"/>
       <c r="G41" s="48" t="s">
         <v>107</v>
@@ -10236,7 +10366,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Mayara Cristina Neves Abel</v>
       </c>
-      <c r="E42" s="39"/>
+      <c r="E42" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F42" s="39"/>
       <c r="G42" s="48" t="s">
         <v>107</v>
@@ -10262,7 +10394,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Leandra Aymê Alves Elias Assumpcao</v>
       </c>
-      <c r="E43" s="39"/>
+      <c r="E43" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F43" s="39"/>
       <c r="G43" s="48" t="s">
         <v>107</v>
@@ -10288,8 +10422,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Camila Bomfim de Carvalho Ferreira</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
+      <c r="E44" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>176</v>
+      </c>
       <c r="G44" s="48" t="s">
         <v>107</v>
       </c>
@@ -10314,7 +10452,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Paulo Ricardo Klaus</v>
       </c>
-      <c r="E45" s="39"/>
+      <c r="E45" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="F45" s="39"/>
       <c r="G45" s="48" t="s">
         <v>107</v>
@@ -10368,8 +10508,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Adiel Correia Nogueira</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
+      <c r="E47" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>176</v>
+      </c>
       <c r="G47" s="48" t="s">
         <v>107</v>
       </c>
@@ -10517,7 +10661,7 @@
         <v>107</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39" t="s">
@@ -10991,7 +11135,7 @@
         <v>107</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39" t="s">
@@ -11846,7 +11990,7 @@
         <v>107</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39" t="s">
@@ -12320,7 +12464,7 @@
         <v>107</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39" t="s">
@@ -13122,7 +13266,7 @@
         <v>99</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>100</v>
@@ -13134,7 +13278,7 @@
         <v>102</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>104</v>
@@ -13150,19 +13294,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
@@ -13698,7 +13844,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M3" s="85" t="str">
         <f t="array" aca="1" ref="M3" ca="1">IF(
@@ -13720,7 +13866,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N3" s="85" t="str">
         <f t="array" aca="1" ref="N3" ca="1">IF(
@@ -13973,7 +14119,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M4" s="85" t="str">
         <f t="array" aca="1" ref="M4" ca="1">IF(
@@ -13995,7 +14141,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N4" s="85" t="str">
         <f t="array" aca="1" ref="N4" ca="1">IF(
@@ -14248,7 +14394,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="M5" s="85" t="str">
         <f t="array" aca="1" ref="M5" ca="1">IF(
@@ -14270,7 +14416,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N5" s="85" t="str">
         <f t="array" aca="1" ref="N5" ca="1">IF(
@@ -14523,7 +14669,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M6" s="85" t="str">
         <f t="array" aca="1" ref="M6" ca="1">IF(
@@ -14545,7 +14691,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N6" s="85" t="str">
         <f t="array" aca="1" ref="N6" ca="1">IF(
@@ -14820,7 +14966,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N7" s="85" t="str">
         <f t="array" aca="1" ref="N7" ca="1">IF(
@@ -15073,7 +15219,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M8" s="85" t="str">
         <f t="array" aca="1" ref="M8" ca="1">IF(
@@ -15095,7 +15241,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N8" s="85" t="str">
         <f t="array" aca="1" ref="N8" ca="1">IF(
@@ -15370,7 +15516,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N9" s="85" t="str">
         <f t="array" aca="1" ref="N9" ca="1">IF(
@@ -15673,7 +15819,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M12" s="85" t="str">
         <f t="array" aca="1" ref="M12" ca="1">IF(
@@ -15695,7 +15841,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N12" s="85" t="str">
         <f t="array" aca="1" ref="N12" ca="1">IF(
@@ -15948,7 +16094,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M13" s="85" t="str">
         <f t="array" aca="1" ref="M13" ca="1">IF(
@@ -15970,7 +16116,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N13" s="85" t="str">
         <f t="array" aca="1" ref="N13" ca="1">IF(
@@ -16223,7 +16369,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="M14" s="85" t="str">
         <f t="array" aca="1" ref="M14" ca="1">IF(
@@ -16245,7 +16391,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N14" s="85" t="str">
         <f t="array" aca="1" ref="N14" ca="1">IF(
@@ -16498,7 +16644,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M15" s="85" t="str">
         <f t="array" aca="1" ref="M15" ca="1">IF(
@@ -16520,7 +16666,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N15" s="85" t="str">
         <f t="array" aca="1" ref="N15" ca="1">IF(
@@ -16773,7 +16919,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M16" s="85" t="str">
         <f t="array" aca="1" ref="M16" ca="1">IF(
@@ -16795,7 +16941,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N16" s="85" t="str">
         <f t="array" aca="1" ref="N16" ca="1">IF(
@@ -17048,7 +17194,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M17" s="85" t="str">
         <f t="array" aca="1" ref="M17" ca="1">IF(
@@ -17070,7 +17216,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N17" s="85" t="str">
         <f t="array" aca="1" ref="N17" ca="1">IF(
@@ -17345,7 +17491,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N18" s="85" t="str">
         <f t="array" aca="1" ref="N18" ca="1">IF(
@@ -17598,7 +17744,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M19" s="85" t="str">
         <f t="array" aca="1" ref="M19" ca="1">IF(
@@ -17620,7 +17766,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N19" s="85" t="str">
         <f t="array" aca="1" ref="N19" ca="1">IF(
@@ -17873,7 +18019,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M20" s="85" t="str">
         <f t="array" aca="1" ref="M20" ca="1">IF(
@@ -17895,7 +18041,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N20" s="85" t="str">
         <f t="array" aca="1" ref="N20" ca="1">IF(
@@ -18148,7 +18294,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M21" s="85" t="str">
         <f t="array" aca="1" ref="M21" ca="1">IF(
@@ -18170,7 +18316,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N21" s="85" t="str">
         <f t="array" aca="1" ref="N21" ca="1">IF(
@@ -18423,7 +18569,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M22" s="85" t="str">
         <f t="array" aca="1" ref="M22" ca="1">IF(
@@ -18445,7 +18591,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N22" s="85" t="str">
         <f t="array" aca="1" ref="N22" ca="1">IF(
@@ -18748,7 +18894,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M25" s="85" t="str">
         <f t="array" aca="1" ref="M25" ca="1">IF(
@@ -18770,7 +18916,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N25" s="85" t="str">
         <f t="array" aca="1" ref="N25" ca="1">IF(
@@ -19045,7 +19191,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Duplicado</v>
       </c>
       <c r="N26" s="85" t="str">
         <f t="array" aca="1" ref="N26" ca="1">IF(
@@ -19320,7 +19466,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N27" s="85" t="str">
         <f t="array" aca="1" ref="N27" ca="1">IF(
@@ -19826,7 +19972,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado &gt;= 2</v>
+        <v>Enviado</v>
       </c>
       <c r="L29" s="85" t="str">
         <f t="array" aca="1" ref="L29" ca="1">IF(
@@ -19870,7 +20016,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N29" s="85" t="str">
         <f t="array" aca="1" ref="N29" ca="1">IF(
@@ -20123,7 +20269,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M30" s="85" t="str">
         <f t="array" aca="1" ref="M30" ca="1">IF(
@@ -20145,7 +20291,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N30" s="85" t="str">
         <f t="array" aca="1" ref="N30" ca="1">IF(
@@ -20695,7 +20841,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N32" s="85" t="str">
         <f t="array" aca="1" ref="N32" ca="1">IF(
@@ -20970,7 +21116,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N33" s="85" t="str">
         <f t="array" aca="1" ref="N33" ca="1">IF(
@@ -21245,7 +21391,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N34" s="85" t="str">
         <f t="array" aca="1" ref="N34" ca="1">IF(
@@ -22698,7 +22844,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M43" s="85" t="str">
         <f t="array" aca="1" ref="M43" ca="1">IF(
@@ -22720,7 +22866,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N43" s="85" t="str">
         <f t="array" aca="1" ref="N43" ca="1">IF(
@@ -22973,7 +23119,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M44" s="85" t="str">
         <f t="array" aca="1" ref="M44" ca="1">IF(
@@ -22995,7 +23141,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N44" s="85" t="str">
         <f t="array" aca="1" ref="N44" ca="1">IF(
@@ -23226,7 +23372,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado &gt;= 2</v>
+        <v>Enviado</v>
       </c>
       <c r="L45" s="85" t="str">
         <f t="array" aca="1" ref="L45" ca="1">IF(
@@ -23248,7 +23394,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="M45" s="85" t="str">
         <f t="array" aca="1" ref="M45" ca="1">IF(
@@ -23270,7 +23416,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N45" s="85" t="str">
         <f t="array" aca="1" ref="N45" ca="1">IF(
@@ -23523,7 +23669,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M46" s="85" t="str">
         <f t="array" aca="1" ref="M46" ca="1">IF(
@@ -23545,7 +23691,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N46" s="85" t="str">
         <f t="array" aca="1" ref="N46" ca="1">IF(
@@ -23798,7 +23944,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="M47" s="85" t="str">
         <f t="array" aca="1" ref="M47" ca="1">IF(
@@ -23820,7 +23966,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N47" s="85" t="str">
         <f t="array" aca="1" ref="N47" ca="1">IF(
@@ -24073,7 +24219,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M48" s="85" t="str">
         <f t="array" aca="1" ref="M48" ca="1">IF(
@@ -24095,7 +24241,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N48" s="85" t="str">
         <f t="array" aca="1" ref="N48" ca="1">IF(
@@ -24304,7 +24450,7 @@
         FALSE
     )
 )</f>
-        <v>Sem Técnico</v>
+        <v>Enviado</v>
       </c>
       <c r="K49" s="85" t="str">
         <f t="array" aca="1" ref="K49" ca="1">IF(
@@ -24326,7 +24472,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado &gt;= 2</v>
+        <v>Enviado</v>
       </c>
       <c r="L49" s="85" t="str">
         <f t="array" aca="1" ref="L49" ca="1">IF(
@@ -24370,7 +24516,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N49" s="85" t="str">
         <f t="array" aca="1" ref="N49" ca="1">IF(
@@ -24623,7 +24769,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M50" s="85" t="str">
         <f t="array" aca="1" ref="M50" ca="1">IF(
@@ -24645,7 +24791,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N50" s="85" t="str">
         <f t="array" aca="1" ref="N50" ca="1">IF(
@@ -24898,7 +25044,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="M51" s="85" t="str">
         <f t="array" aca="1" ref="M51" ca="1">IF(
@@ -24920,7 +25066,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N51" s="85" t="str">
         <f t="array" aca="1" ref="N51" ca="1">IF(
@@ -25195,7 +25341,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N52" s="85" t="str">
         <f t="array" aca="1" ref="N52" ca="1">IF(
@@ -25448,7 +25594,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M53" s="85" t="str">
         <f t="array" aca="1" ref="M53" ca="1">IF(
@@ -25470,7 +25616,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N53" s="85" t="str">
         <f t="array" aca="1" ref="N53" ca="1">IF(
@@ -26020,7 +26166,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N55" s="85" t="str">
         <f t="array" aca="1" ref="N55" ca="1">IF(
@@ -26653,7 +26799,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N3" s="72" t="str">
         <f t="array" aca="1" ref="N3" ca="1">IF(
@@ -26916,7 +27062,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N4" s="72" t="str">
         <f t="array" aca="1" ref="N4" ca="1">IF(
@@ -27179,7 +27325,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N5" s="72" t="str">
         <f t="array" aca="1" ref="N5" ca="1">IF(
@@ -27442,7 +27588,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N6" s="72" t="str">
         <f t="array" aca="1" ref="N6" ca="1">IF(
@@ -27705,7 +27851,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N7" s="72" t="str">
         <f t="array" aca="1" ref="N7" ca="1">IF(
@@ -27968,7 +28114,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N8" s="72" t="str">
         <f t="array" aca="1" ref="N8" ca="1">IF(
@@ -28231,7 +28377,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N9" s="72" t="str">
         <f t="array" aca="1" ref="N9" ca="1">IF(
@@ -28544,7 +28690,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N12" s="72" t="str">
         <f t="array" aca="1" ref="N12" ca="1">IF(
@@ -28807,7 +28953,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N13" s="72" t="str">
         <f t="array" aca="1" ref="N13" ca="1">IF(
@@ -29070,7 +29216,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N14" s="72" t="str">
         <f t="array" aca="1" ref="N14" ca="1">IF(
@@ -29333,7 +29479,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N15" s="72" t="str">
         <f t="array" aca="1" ref="N15" ca="1">IF(
@@ -29596,7 +29742,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N16" s="72" t="str">
         <f t="array" aca="1" ref="N16" ca="1">IF(
@@ -29859,7 +30005,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N17" s="72" t="str">
         <f t="array" aca="1" ref="N17" ca="1">IF(
@@ -30122,7 +30268,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N18" s="72" t="str">
         <f t="array" aca="1" ref="N18" ca="1">IF(
@@ -30385,7 +30531,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N19" s="72" t="str">
         <f t="array" aca="1" ref="N19" ca="1">IF(
@@ -30648,7 +30794,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N20" s="72" t="str">
         <f t="array" aca="1" ref="N20" ca="1">IF(
@@ -30911,7 +31057,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N21" s="72" t="str">
         <f t="array" aca="1" ref="N21" ca="1">IF(
@@ -31174,7 +31320,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N22" s="72" t="str">
         <f t="array" aca="1" ref="N22" ca="1">IF(
@@ -31487,7 +31633,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N25" s="72" t="str">
         <f t="array" aca="1" ref="N25" ca="1">IF(
@@ -31750,7 +31896,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N26" s="72" t="str">
         <f t="array" aca="1" ref="N26" ca="1">IF(
@@ -32013,7 +32159,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N27" s="72" t="str">
         <f t="array" aca="1" ref="N27" ca="1">IF(
@@ -32539,7 +32685,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N29" s="72" t="str">
         <f t="array" aca="1" ref="N29" ca="1">IF(
@@ -32802,7 +32948,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N30" s="72" t="str">
         <f t="array" aca="1" ref="N30" ca="1">IF(
@@ -33328,7 +33474,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N32" s="72" t="str">
         <f t="array" aca="1" ref="N32" ca="1">IF(
@@ -33591,7 +33737,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N33" s="72" t="str">
         <f t="array" aca="1" ref="N33" ca="1">IF(
@@ -33854,7 +34000,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N34" s="72" t="str">
         <f t="array" aca="1" ref="N34" ca="1">IF(
@@ -35269,7 +35415,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N43" s="72" t="str">
         <f t="array" aca="1" ref="N43" ca="1">IF(
@@ -35532,7 +35678,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N44" s="72" t="str">
         <f t="array" aca="1" ref="N44" ca="1">IF(
@@ -35795,7 +35941,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N45" s="72" t="str">
         <f t="array" aca="1" ref="N45" ca="1">IF(
@@ -36058,7 +36204,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N46" s="72" t="str">
         <f t="array" aca="1" ref="N46" ca="1">IF(
@@ -36321,7 +36467,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N47" s="72" t="str">
         <f t="array" aca="1" ref="N47" ca="1">IF(
@@ -36584,7 +36730,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N48" s="72" t="str">
         <f t="array" aca="1" ref="N48" ca="1">IF(
@@ -36784,7 +36930,7 @@
         FALSE
     )
 )</f>
-        <v>Sim</v>
+        <v>Não</v>
       </c>
       <c r="K49" s="72" t="str">
         <f t="array" aca="1" ref="K49" ca="1">IF(
@@ -36847,7 +36993,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N49" s="72" t="str">
         <f t="array" aca="1" ref="N49" ca="1">IF(
@@ -37110,7 +37256,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N50" s="72" t="str">
         <f t="array" aca="1" ref="N50" ca="1">IF(
@@ -37373,7 +37519,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N51" s="72" t="str">
         <f t="array" aca="1" ref="N51" ca="1">IF(
@@ -37636,7 +37782,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N52" s="72" t="str">
         <f t="array" aca="1" ref="N52" ca="1">IF(
@@ -37899,7 +38045,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N53" s="72" t="str">
         <f t="array" aca="1" ref="N53" ca="1">IF(
@@ -38425,7 +38571,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N55" s="72" t="str">
         <f t="array" aca="1" ref="N55" ca="1">IF(
